--- a/docs/StructureDefinition-PASportGoal.xlsx
+++ b/docs/StructureDefinition-PASportGoal.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-23T00:37:08+08:00</t>
+    <t>2024-10-23T02:33:36+08:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-PASportGoal.xlsx
+++ b/docs/StructureDefinition-PASportGoal.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-23T02:33:36+08:00</t>
+    <t>2025-07-28T13:16:22+08:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1903,17 +1903,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="49.19140625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="39.26953125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="14.12109375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="43.0703125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="34.09375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.47265625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.21484375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.55078125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="96.875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="86.92578125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1922,25 +1922,25 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="38.2265625" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="153.78125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="50.4921875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="29.79296875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="34.80859375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.08984375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="132.69140625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="45.859375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="25.34765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.44140625" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="30.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="8.51953125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="8.859375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="45.6171875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="102.6171875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="39.3984375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="89.40625" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="29.45703125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/StructureDefinition-PASportGoal.xlsx
+++ b/docs/StructureDefinition-PASportGoal.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-28T13:16:22+08:00</t>
+    <t>2025-07-28T13:45:25+08:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-PASportGoal.xlsx
+++ b/docs/StructureDefinition-PASportGoal.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-28T13:45:25+08:00</t>
+    <t>2025-07-28T14:53:50+08:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-PASportGoal.xlsx
+++ b/docs/StructureDefinition-PASportGoal.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.0</t>
+    <t>0.3.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,19 +60,19 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-28T14:53:50+08:00</t>
+    <t>2025-08-20T12:47:30+08:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>MI-TW</t>
+    <t>經濟部產業發展署</t>
   </si>
   <si>
     <t>Contact</t>
   </si>
   <si>
-    <t>MI-TW (https://mitw.dicom.org.tw/)</t>
+    <t>經濟部產業發展署 (https://www.ida.gov.tw/)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -1903,17 +1903,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="43.0703125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="34.09375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.47265625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.21484375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.55078125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="42.17578125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="33.6640625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.10546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="86.92578125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="83.0546875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1922,25 +1922,25 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="34.80859375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="14.08984375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="132.69140625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="45.859375" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="25.34765625" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="13.44140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="30.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="8.51953125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="8.859375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="32.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="131.83984375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="43.2890625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="25.54296875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="29.88671875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="39.3984375" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="89.40625" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="29.45703125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="39.109375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="87.9765625" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="31.65234375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/StructureDefinition-PASportGoal.xlsx
+++ b/docs/StructureDefinition-PASportGoal.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-20T12:47:30+08:00</t>
+    <t>2025-08-23T17:17:30+08:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-PASportGoal.xlsx
+++ b/docs/StructureDefinition-PASportGoal.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-23T17:17:30+08:00</t>
+    <t>2025-09-09T02:59:45+08:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-PASportGoal.xlsx
+++ b/docs/StructureDefinition-PASportGoal.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-09T02:59:45+08:00</t>
+    <t>2025-09-09T04:22:03+08:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-PASportGoal.xlsx
+++ b/docs/StructureDefinition-PASportGoal.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-09T04:22:03+08:00</t>
+    <t>2025-09-15T15:24:30+08:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -361,7 +361,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -580,7 +580,7 @@
     <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type|4.0.1</t>
   </si>
   <si>
     <t>Identifier.type</t>
@@ -665,7 +665,7 @@
     <t>Goal.identifier.assigner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
+    <t xml:space="preserve">Reference(Organization|4.0.1)
 </t>
   </si>
   <si>
@@ -729,7 +729,7 @@
     <t>Indicates the progression, or lack thereof, towards the goal against the target.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/goal-achievement</t>
+    <t>http://hl7.org/fhir/ValueSet/goal-achievement|4.0.1</t>
   </si>
   <si>
     <t>.statusCode achieved = complete sustaining = active</t>
@@ -753,7 +753,7 @@
     <t>Codes for grouping and sorting goals.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/goal-category</t>
+    <t>http://hl7.org/fhir/ValueSet/goal-category|4.0.1</t>
   </si>
   <si>
     <t>FiveWs.class</t>
@@ -964,7 +964,7 @@
     <t>The level of importance associated with a goal.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/goal-priority</t>
+    <t>http://hl7.org/fhir/ValueSet/goal-priority|4.0.1</t>
   </si>
   <si>
     <t>.priorityCode</t>
@@ -991,7 +991,7 @@
     <t>Codes providing the details of a particular goal.  This will generally be system or implementation guide-specific.  In many systems, only the text element will be used.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/clinical-findings</t>
+    <t>http://hl7.org/fhir/ValueSet/clinical-findings|4.0.1</t>
   </si>
   <si>
     <t>GOL-3.2-goal ID.text</t>
@@ -1059,7 +1059,7 @@
     <t>Codes describing events that can trigger the initiation of a goal.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/goal-start-event</t>
+    <t>http://hl7.org/fhir/ValueSet/goal-start-event|4.0.1</t>
   </si>
   <si>
     <t>FiveWs.planned</t>
@@ -1131,7 +1131,7 @@
     <t>Codes to identify the value being tracked, e.g. body weight, blood pressure, or hemoglobin A1c level.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-codes</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-codes|4.0.1</t>
   </si>
   <si>
     <t>Goal.target.detail[x]</t>
@@ -1480,7 +1480,7 @@
     <t>Goal.expressedBy</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient|Practitioner|PractitionerRole|RelatedPerson)
+    <t xml:space="preserve">Reference(Patient|4.0.1|Practitioner|4.0.1|PractitionerRole|4.0.1|RelatedPerson|4.0.1)
 </t>
   </si>
   <si>
@@ -1499,7 +1499,7 @@
     <t>Goal.addresses</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Condition|Observation|MedicationStatement|NutritionOrder|ServiceRequest|RiskAssessment)
+    <t xml:space="preserve">Reference(Condition|4.0.1|Observation|4.0.1|MedicationStatement|4.0.1|NutritionOrder|4.0.1|ServiceRequest|4.0.1|RiskAssessment|4.0.1)
 </t>
   </si>
   <si>
@@ -1564,7 +1564,7 @@
     <t>Goal.outcomeReference</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Observation)
+    <t xml:space="preserve">Reference(Observation|4.0.1)
 </t>
   </si>
   <si>
@@ -1913,7 +1913,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="83.0546875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="110.2265625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/docs/StructureDefinition-PASportGoal.xlsx
+++ b/docs/StructureDefinition-PASportGoal.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-15T15:24:30+08:00</t>
+    <t>2025-09-26T02:27:53+08:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-PASportGoal.xlsx
+++ b/docs/StructureDefinition-PASportGoal.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-26T02:27:53+08:00</t>
+    <t>2025-09-26T02:46:56+08:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-PASportGoal.xlsx
+++ b/docs/StructureDefinition-PASportGoal.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-26T02:46:56+08:00</t>
+    <t>2025-09-26T16:12:42+08:00</t>
   </si>
   <si>
     <t>Publisher</t>
